--- a/medicine/Enfance/L'Évadé_de_l'an_II/L'Évadé_de_l'an_II.xlsx
+++ b/medicine/Enfance/L'Évadé_de_l'an_II/L'Évadé_de_l'an_II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27%C3%89vad%C3%A9_de_l%27an_II</t>
+          <t>L'Évadé_de_l'an_II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Évadé de l’an II est le quatrième roman de la série Les Conquérants de l'impossible écrite par Philippe Ébly. Ce roman a été édité pour la première fois en 1973 chez Hachette dans la collection Bibliothèque verte.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27%C3%89vad%C3%A9_de_l%27an_II</t>
+          <t>L'Évadé_de_l'an_II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mise en place de l'intrigue (« prologue »)
 Serge, Thibaut et Xolotl sont invités chez Mme d'Antignac, une riche baronne installée à Paris. Elle a également invité son neveu, le professeur Auvernaux qui se présente comme un ami du professeur Lorenzo avec qui les Conquérants ont vécu l'aventure de L'Éclair qui effaçait tout. Lors du dîner, Mme d'Antignac relate en détail certains épisodes marquants de la Révolution française, sujet qui la passionne. Elle insiste notamment sur le sort de la famille royale et plus particulièrement sur celui du Dauphin, qui était destiné à devenir Louis XVII et qui mourra en fait en prison à l'âge de dix ans. Mme d'Antignac le présente comme un enfant balloté par les événements et promis à une fin très triste. C'est alors que le professeur Auvernaux prend le relais et propose aux trois Conquérants de partir dans le passé, en 1793, pour y faire évader le Dauphin de la tour-prison du Temple et lui permettre de vivre une « vie normale ».
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27%C3%89vad%C3%A9_de_l%27an_II</t>
+          <t>L'Évadé_de_l'an_II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1973 : Hachette, Bibliothèque verte, cartonné, texte original, illustrations d'Yvon Le Gall. 184 pages.
 1987 : Hachette, Bibliothèque verte, cartonné (série hachurée), texte original. Illustrations d'Yvon Le Gall. 162 pages.
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27%C3%89vad%C3%A9_de_l%27an_II</t>
+          <t>L'Évadé_de_l'an_II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Les « faux dauphins » au XIXe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Plusieurs « faux dauphins » ont fait l'objet de l'attention des autorités au XIXe siècle :
 Jean-Marie Hervagault,
